--- a/public/output/personel-31/پرسنل31_تیر_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_تیر_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>1400/4/1</t>
   </si>
   <si>
-    <t>0:0:0</t>
+    <t>00:00:00</t>
   </si>
   <si>
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>7:30:0</t>
+    <t>07:30:00</t>
   </si>
   <si>
     <t>چهارشنبه</t>
@@ -92,6 +89,9 @@
     <t>1400/4/3</t>
   </si>
   <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -146,7 +146,7 @@
     <t>1400/4/12</t>
   </si>
   <si>
-    <t>1:36:34</t>
+    <t>01:36:34</t>
   </si>
   <si>
     <t>2</t>
@@ -158,7 +158,7 @@
     <t>14:21:21</t>
   </si>
   <si>
-    <t>0:2:24</t>
+    <t>00:02:24</t>
   </si>
   <si>
     <t>14:42:49</t>
@@ -167,25 +167,25 @@
     <t>16:58:35</t>
   </si>
   <si>
-    <t>2:15:46</t>
-  </si>
-  <si>
-    <t>17:3:29</t>
-  </si>
-  <si>
-    <t>18:7:51</t>
-  </si>
-  <si>
-    <t>1:4:22</t>
-  </si>
-  <si>
-    <t>4:59:6</t>
-  </si>
-  <si>
-    <t>6:22:27</t>
-  </si>
-  <si>
-    <t>2:30:54</t>
+    <t>02:15:46</t>
+  </si>
+  <si>
+    <t>17:03:29</t>
+  </si>
+  <si>
+    <t>18:07:51</t>
+  </si>
+  <si>
+    <t>01:04:22</t>
+  </si>
+  <si>
+    <t>04:59:06</t>
+  </si>
+  <si>
+    <t>06:22:27</t>
+  </si>
+  <si>
+    <t>02:30:54</t>
   </si>
   <si>
     <t>1400/4/13</t>
@@ -200,25 +200,25 @@
     <t>11:19:36</t>
   </si>
   <si>
-    <t>11:20:0</t>
+    <t>11:20:00</t>
   </si>
   <si>
     <t>1400/4/15</t>
   </si>
   <si>
-    <t>0:0:24</t>
+    <t>00:00:24</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>11:21:3</t>
+    <t>11:21:03</t>
   </si>
   <si>
     <t>13:20:59</t>
   </si>
   <si>
-    <t>1:59:56</t>
+    <t>01:59:56</t>
   </si>
   <si>
     <t>7</t>
@@ -230,7 +230,7 @@
     <t>13:49:36</t>
   </si>
   <si>
-    <t>0:22:22</t>
+    <t>00:22:22</t>
   </si>
   <si>
     <t>8</t>
@@ -242,7 +242,7 @@
     <t>16:41:31</t>
   </si>
   <si>
-    <t>2:13:36</t>
+    <t>02:13:36</t>
   </si>
   <si>
     <t>9</t>
@@ -254,22 +254,22 @@
     <t>17:12:28</t>
   </si>
   <si>
-    <t>0:15:56</t>
-  </si>
-  <si>
-    <t>4:52:14</t>
-  </si>
-  <si>
-    <t>5:54:15</t>
-  </si>
-  <si>
-    <t>2:37:46</t>
+    <t>00:15:56</t>
+  </si>
+  <si>
+    <t>04:52:14</t>
+  </si>
+  <si>
+    <t>05:54:15</t>
+  </si>
+  <si>
+    <t>02:37:46</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>11:12:1</t>
+    <t>11:12:01</t>
   </si>
   <si>
     <t>11:12:27</t>
@@ -278,7 +278,7 @@
     <t>1400/4/16</t>
   </si>
   <si>
-    <t>0:0:26</t>
+    <t>00:00:26</t>
   </si>
   <si>
     <t>11</t>
@@ -287,10 +287,10 @@
     <t>11:14:10</t>
   </si>
   <si>
-    <t>14:8:1</t>
-  </si>
-  <si>
-    <t>2:53:51</t>
+    <t>14:08:01</t>
+  </si>
+  <si>
+    <t>02:53:51</t>
   </si>
   <si>
     <t>12</t>
@@ -302,7 +302,7 @@
     <t>14:13:25</t>
   </si>
   <si>
-    <t>0:0:45</t>
+    <t>00:00:45</t>
   </si>
   <si>
     <t>13</t>
@@ -314,19 +314,19 @@
     <t>16:58:36</t>
   </si>
   <si>
-    <t>2:10:5</t>
+    <t>02:10:05</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>17:5:33</t>
+    <t>17:05:33</t>
   </si>
   <si>
     <t>17:13:40</t>
   </si>
   <si>
-    <t>0:8:7</t>
+    <t>00:08:07</t>
   </si>
   <si>
     <t>15</t>
@@ -338,16 +338,16 @@
     <t>17:17:36</t>
   </si>
   <si>
-    <t>0:0:17</t>
-  </si>
-  <si>
-    <t>5:13:31</t>
-  </si>
-  <si>
-    <t>6:5:35</t>
-  </si>
-  <si>
-    <t>2:16:29</t>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>05:13:31</t>
+  </si>
+  <si>
+    <t>06:05:35</t>
+  </si>
+  <si>
+    <t>02:16:29</t>
   </si>
   <si>
     <t>1400/4/17</t>
@@ -359,28 +359,28 @@
     <t>16</t>
   </si>
   <si>
-    <t>9:57:17</t>
-  </si>
-  <si>
-    <t>9:57:42</t>
+    <t>09:57:17</t>
+  </si>
+  <si>
+    <t>09:57:42</t>
   </si>
   <si>
     <t>1400/4/19</t>
   </si>
   <si>
-    <t>0:0:25</t>
+    <t>00:00:25</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>10:2:35</t>
+    <t>10:02:35</t>
   </si>
   <si>
     <t>13:20:57</t>
   </si>
   <si>
-    <t>3:18:22</t>
+    <t>03:18:22</t>
   </si>
   <si>
     <t>18</t>
@@ -392,7 +392,7 @@
     <t>14:10:40</t>
   </si>
   <si>
-    <t>0:45:25</t>
+    <t>00:45:25</t>
   </si>
   <si>
     <t>19</t>
@@ -401,22 +401,22 @@
     <t>14:49:32</t>
   </si>
   <si>
-    <t>17:0:7</t>
-  </si>
-  <si>
-    <t>2:10:35</t>
+    <t>17:00:07</t>
+  </si>
+  <si>
+    <t>02:10:35</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>17:4:59</t>
+    <t>17:04:59</t>
   </si>
   <si>
     <t>17:49:52</t>
   </si>
   <si>
-    <t>0:44:53</t>
+    <t>00:44:53</t>
   </si>
   <si>
     <t>21</t>
@@ -428,22 +428,22 @@
     <t>17:50:56</t>
   </si>
   <si>
-    <t>0:0:18</t>
-  </si>
-  <si>
-    <t>6:59:58</t>
-  </si>
-  <si>
-    <t>7:53:39</t>
-  </si>
-  <si>
-    <t>0:30:2</t>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>06:59:58</t>
+  </si>
+  <si>
+    <t>07:53:39</t>
+  </si>
+  <si>
+    <t>00:30:02</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>9:58:5</t>
+    <t>09:58:05</t>
   </si>
   <si>
     <t>13:37:56</t>
@@ -452,7 +452,7 @@
     <t>1400/4/20</t>
   </si>
   <si>
-    <t>3:39:51</t>
+    <t>03:39:51</t>
   </si>
   <si>
     <t>23</t>
@@ -461,31 +461,31 @@
     <t>13:38:26</t>
   </si>
   <si>
-    <t>13:40:5</t>
-  </si>
-  <si>
-    <t>0:1:39</t>
+    <t>13:40:05</t>
+  </si>
+  <si>
+    <t>00:01:39</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>14:4:49</t>
+    <t>14:04:49</t>
   </si>
   <si>
     <t>17:10:51</t>
   </si>
   <si>
-    <t>3:6:2</t>
-  </si>
-  <si>
-    <t>6:47:32</t>
-  </si>
-  <si>
-    <t>7:12:46</t>
-  </si>
-  <si>
-    <t>0:42:28</t>
+    <t>03:06:02</t>
+  </si>
+  <si>
+    <t>06:47:32</t>
+  </si>
+  <si>
+    <t>07:12:46</t>
+  </si>
+  <si>
+    <t>00:42:28</t>
   </si>
   <si>
     <t>25</t>
@@ -500,7 +500,7 @@
     <t>1400/4/21</t>
   </si>
   <si>
-    <t>1:24:30</t>
+    <t>01:24:30</t>
   </si>
   <si>
     <t>26</t>
@@ -512,52 +512,52 @@
     <t>18:11:26</t>
   </si>
   <si>
-    <t>4:33:41</t>
-  </si>
-  <si>
-    <t>5:58:11</t>
-  </si>
-  <si>
-    <t>6:39:2</t>
-  </si>
-  <si>
-    <t>1:31:49</t>
+    <t>04:33:41</t>
+  </si>
+  <si>
+    <t>05:58:11</t>
+  </si>
+  <si>
+    <t>06:39:02</t>
+  </si>
+  <si>
+    <t>01:31:49</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>11:4:22</t>
-  </si>
-  <si>
-    <t>14:0:4</t>
+    <t>11:04:22</t>
+  </si>
+  <si>
+    <t>14:00:04</t>
   </si>
   <si>
     <t>1400/4/22</t>
   </si>
   <si>
-    <t>2:55:42</t>
+    <t>02:55:42</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>14:50:4</t>
-  </si>
-  <si>
-    <t>16:5:10</t>
-  </si>
-  <si>
-    <t>1:15:6</t>
-  </si>
-  <si>
-    <t>4:10:48</t>
-  </si>
-  <si>
-    <t>5:0:48</t>
-  </si>
-  <si>
-    <t>3:19:12</t>
+    <t>14:50:04</t>
+  </si>
+  <si>
+    <t>16:05:10</t>
+  </si>
+  <si>
+    <t>01:15:06</t>
+  </si>
+  <si>
+    <t>04:10:48</t>
+  </si>
+  <si>
+    <t>05:00:48</t>
+  </si>
+  <si>
+    <t>03:19:12</t>
   </si>
   <si>
     <t>1400/4/23</t>
@@ -581,7 +581,7 @@
     <t>1400/4/26</t>
   </si>
   <si>
-    <t>7:29:35</t>
+    <t>07:29:35</t>
   </si>
   <si>
     <t>1400/4/27</t>
@@ -599,7 +599,19 @@
     <t>1400/4/31</t>
   </si>
   <si>
-    <t>39:1:45</t>
+    <t>مجموع</t>
+  </si>
+  <si>
+    <t>39:01:45</t>
+  </si>
+  <si>
+    <t>45:08:57</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>125:58:15</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -637,6 +649,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -670,12 +688,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -684,13 +703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,53 +737,47 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -772,22 +785,22 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -795,22 +808,22 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -824,22 +837,22 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -847,22 +860,22 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -870,22 +883,22 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -893,22 +906,22 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -916,22 +929,22 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -945,22 +958,22 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -968,22 +981,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -991,22 +1004,22 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1014,22 +1027,22 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1037,22 +1050,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1060,22 +1073,22 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1089,22 +1102,22 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1112,22 +1125,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1135,22 +1148,22 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1158,22 +1171,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1181,22 +1194,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1204,22 +1217,22 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1233,22 +1246,22 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1256,22 +1269,22 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1279,22 +1292,22 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1308,22 +1321,22 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1331,22 +1344,22 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1360,22 +1373,22 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>173</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1383,22 +1396,22 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>173</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1412,22 +1425,22 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1438,6 +1451,20 @@
       </c>
       <c r="I30" s="3" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1455,91 +1482,88 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1547,16 +1571,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1567,16 +1588,16 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1587,16 +1608,16 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1607,79 +1628,76 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1687,16 +1705,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1713,7 +1728,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>57</v>
@@ -1727,16 +1742,16 @@
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1747,21 +1762,21 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -1773,7 +1788,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>83</v>
@@ -1781,7 +1796,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>87</v>
@@ -1793,33 +1808,30 @@
         <v>110</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1827,16 +1839,13 @@
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1853,7 +1862,7 @@
         <v>140</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>141</v>
@@ -1873,7 +1882,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>157</v>
@@ -1893,7 +1902,7 @@
         <v>168</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>169</v>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>173</v>
@@ -1913,7 +1922,7 @@
         <v>180</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>181</v>
@@ -1921,45 +1930,42 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1967,16 +1973,13 @@
         <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1993,7 +1996,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>189</v>
@@ -2007,16 +2010,16 @@
         <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2027,76 +2030,96 @@
         <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
